--- a/data/Models/Timekeeping.xlsx
+++ b/data/Models/Timekeeping.xlsx
@@ -19,13 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>date_logtime</t>
   </si>
@@ -36,22 +30,13 @@
     <t>checkout_time</t>
   </si>
   <si>
-    <t>Hồ Duy Quang</t>
-  </si>
-  <si>
     <t>QuangHD</t>
   </si>
   <si>
-    <t>Lý Ngọc Thu Ngân</t>
-  </si>
-  <si>
     <t>NganLNT</t>
   </si>
   <si>
     <t>user_id</t>
-  </si>
-  <si>
-    <t>Trần Quang Trung</t>
   </si>
   <si>
     <t>TrungTQ</t>
@@ -90,8 +75,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,25 +359,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -398,55 +385,61 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44321</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C2" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44321</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.375</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44321</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44321</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
+      <c r="C5" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/data/Models/Timekeeping.xlsx
+++ b/data/Models/Timekeeping.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>date_logtime</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>TrungTQ</t>
+  </si>
+  <si>
+    <t>face_checkin</t>
+  </si>
+  <si>
+    <t>face_checkout</t>
   </si>
 </sst>
 </file>
@@ -359,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -372,7 +378,7 @@
     <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -385,8 +391,14 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44321</v>
       </c>
@@ -400,7 +412,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44321</v>
       </c>
@@ -414,7 +426,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44321</v>
       </c>
@@ -428,7 +440,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44321</v>
       </c>

--- a/data/Models/Timekeeping.xlsx
+++ b/data/Models/Timekeeping.xlsx
@@ -30,12 +30,6 @@
     <t>checkout_time</t>
   </si>
   <si>
-    <t>QuangHD</t>
-  </si>
-  <si>
-    <t>NganLNT</t>
-  </si>
-  <si>
     <t>user_id</t>
   </si>
   <si>
@@ -46,6 +40,12 @@
   </si>
   <si>
     <t>face_checkout</t>
+  </si>
+  <si>
+    <t>TrungHV</t>
+  </si>
+  <si>
+    <t>TrungTQ2</t>
   </si>
 </sst>
 </file>
@@ -368,11 +368,12 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
@@ -383,7 +384,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -392,18 +393,18 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>44321</v>
+        <v>44535</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2">
         <v>0.35416666666666669</v>
@@ -414,10 +415,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>44321</v>
+        <v>44535</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2">
         <v>0.35416666666666669</v>
@@ -428,10 +429,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>44321</v>
+        <v>44535</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2">
         <v>0.4375</v>
@@ -442,10 +443,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>44321</v>
+        <v>44535</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
         <v>0.35416666666666669</v>

--- a/data/Models/Timekeeping.xlsx
+++ b/data/Models/Timekeeping.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>date_logtime</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>TrungTQ2</t>
+  </si>
+  <si>
+    <t>data\timekeeping\checkin\TrungHV\2021-05-05_21-44-20.jpg</t>
   </si>
 </sst>
 </file>
@@ -368,7 +371,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -376,7 +379,7 @@
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -412,6 +415,9 @@
       <c r="D2" s="2">
         <v>0.66666666666666663</v>
       </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">

--- a/data/Models/Timekeeping.xlsx
+++ b/data/Models/Timekeeping.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>date_logtime</t>
   </si>
@@ -33,9 +33,6 @@
     <t>user_id</t>
   </si>
   <si>
-    <t>TrungTQ</t>
-  </si>
-  <si>
     <t>face_checkin</t>
   </si>
   <si>
@@ -45,10 +42,7 @@
     <t>TrungHV</t>
   </si>
   <si>
-    <t>TrungTQ2</t>
-  </si>
-  <si>
-    <t>data\timekeeping\checkin\TrungHV\2021-05-05_21-44-20.jpg</t>
+    <t>data\timekeeping\checkin\TrungHV\2021-05-05_21-44-22.jpg</t>
   </si>
 </sst>
 </file>
@@ -371,7 +365,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A3" sqref="A3:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -396,10 +390,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -407,7 +401,7 @@
         <v>44535</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2">
         <v>0.35416666666666669</v>
@@ -416,50 +410,23 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>44535</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.375</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>44535</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.75</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>44535</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.75</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Models/Timekeeping.xlsx
+++ b/data/Models/Timekeeping.xlsx
@@ -39,10 +39,10 @@
     <t>face_checkout</t>
   </si>
   <si>
-    <t>TrungHV</t>
-  </si>
-  <si>
-    <t>data\timekeeping\checkin\TrungHV\2021-05-05_21-44-22.jpg</t>
+    <t>QuangHD</t>
+  </si>
+  <si>
+    <t>data\timekeeping\checkin\QuangHD\2021-05-05_21-44-22.jpg</t>
   </si>
 </sst>
 </file>
@@ -365,7 +365,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/Models/Timekeeping.xlsx
+++ b/data/Models/Timekeeping.xlsx
@@ -1,66 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>date_logtime</t>
-  </si>
-  <si>
-    <t>checkin_time</t>
-  </si>
-  <si>
-    <t>checkout_time</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>face_checkin</t>
-  </si>
-  <si>
-    <t>face_checkout</t>
-  </si>
-  <si>
-    <t>QuangHD</t>
-  </si>
-  <si>
-    <t>data\timekeeping\checkin\QuangHD\2021-05-05_21-44-22.jpg</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -78,24 +45,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -361,72 +385,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col width="9.5546875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="15.6640625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="11.77734375" bestFit="1" customWidth="1" min="3" max="4"/>
+    <col width="52.33203125" bestFit="1" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>date_logtime</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>checkin_time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>checkout_time</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>face_checkin</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>face_checkout</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>44535</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>QuangHD</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>21:09:48</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21:31:42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>data/timekeeping/checkin/17-05-2021/QuangHD/21-09-48-064299.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>data/timekeeping/checkout17-05-2021/QuangHD/21-31-42-692325.jpg</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Models/Timekeeping.xlsx
+++ b/data/Models/Timekeeping.xlsx
@@ -49,7 +49,7 @@
     <t>21:09:48</t>
   </si>
   <si>
-    <t>21:09:42</t>
+    <t>11:09:42</t>
   </si>
   <si>
     <t>21:09:44</t>

--- a/data/Models/Timekeeping.xlsx
+++ b/data/Models/Timekeeping.xlsx
@@ -1,111 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
-  <si>
-    <t>date_logtime</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>checkin_time</t>
-  </si>
-  <si>
-    <t>checkout_time</t>
-  </si>
-  <si>
-    <t>face_checkin</t>
-  </si>
-  <si>
-    <t>face_checkout</t>
-  </si>
-  <si>
-    <t>17/05/2021</t>
-  </si>
-  <si>
-    <t>25/05/2021</t>
-  </si>
-  <si>
-    <t>QuangHD</t>
-  </si>
-  <si>
-    <t>QuangTrung</t>
-  </si>
-  <si>
-    <t>21:09:48</t>
-  </si>
-  <si>
-    <t>11:09:42</t>
-  </si>
-  <si>
-    <t>21:09:44</t>
-  </si>
-  <si>
-    <t>21:31:42</t>
-  </si>
-  <si>
-    <t>21:10:19</t>
-  </si>
-  <si>
-    <t>21:10:27</t>
-  </si>
-  <si>
-    <t>data/timekeeping/checkin/17-05-2021/QuangHD/21-09-48-064299.jpg</t>
-  </si>
-  <si>
-    <t>data/timekeeping/checkin/25-05-2021/QuangHD/21-09-42-918872.jpg</t>
-  </si>
-  <si>
-    <t>data/timekeeping/checkin/25-05-2021/QuangTrung/21-09-44-698661.jpg</t>
-  </si>
-  <si>
-    <t>data/timekeeping/checkout17-05-2021/QuangHD/21-31-42-692325.jpg</t>
-  </si>
-  <si>
-    <t>data/timekeeping/checkout/25-05-2021/QuangHD/21-10-16-759866.jpg</t>
-  </si>
-  <si>
-    <t>data/timekeeping/checkout/25-05-2021/QuangTrung/21-10-24-986252.jpg</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -139,16 +69,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -436,92 +433,170 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date_logtime</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>checkin_time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>checkout_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>face_checkin</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>face_checkout</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>17/05/2021</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>QuangHD</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>21:09:48</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21:31:42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>data/timekeeping/checkin/17-05-2021/QuangHD/21-09-48-064299.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>data/timekeeping/checkout17-05-2021/QuangHD/21-31-42-692325.jpg</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>25/05/2021</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>QuangHD</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>11:09:42</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21:10:19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>data/timekeeping/checkin/25-05-2021/QuangHD/21-09-42-918872.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>data/timekeeping/checkout/25-05-2021/QuangHD/21-10-16-759866.jpg</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>25/05/2021</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>QuangTrung</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>21:09:44</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21:10:27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>data/timekeeping/checkin/25-05-2021/QuangTrung/21-09-44-698661.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>data/timekeeping/checkout/25-05-2021/QuangTrung/21-10-24-986252.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>28/05/2021</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>QuangHD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>15:46:16</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>data/timekeeping/checkin/28-05-2021/QuangHD/15-46-16-455229.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Models/Timekeeping.xlsx
+++ b/data/Models/Timekeeping.xlsx
@@ -1,41 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tranq\Documents\time-attendance-by-face-recognition\data\Models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>date_logtime</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>checkin_time</t>
+  </si>
+  <si>
+    <t>checkout_time</t>
+  </si>
+  <si>
+    <t>face_checkin</t>
+  </si>
+  <si>
+    <t>face_checkout</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,83 +96,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -433,170 +401,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>date_logtime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>user_id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>checkin_time</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>checkout_time</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>face_checkin</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>face_checkout</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>17/05/2021</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>QuangHD</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>21:09:48</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>21:31:42</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>data/timekeeping/checkin/17-05-2021/QuangHD/21-09-48-064299.jpg</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>data/timekeeping/checkout17-05-2021/QuangHD/21-31-42-692325.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>25/05/2021</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>QuangHD</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>11:09:42</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21:10:19</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>data/timekeeping/checkin/25-05-2021/QuangHD/21-09-42-918872.jpg</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>data/timekeeping/checkout/25-05-2021/QuangHD/21-10-16-759866.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>25/05/2021</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>QuangTrung</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>21:09:44</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>21:10:27</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>data/timekeeping/checkin/25-05-2021/QuangTrung/21-09-44-698661.jpg</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>data/timekeeping/checkout/25-05-2021/QuangTrung/21-10-24-986252.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>28/05/2021</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>QuangHD</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>15:46:16</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>data/timekeeping/checkin/28-05-2021/QuangHD/15-46-16-455229.jpg</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
